--- a/operador_microcomputador/office_e_internet/excel/aula09/Compras.xlsx
+++ b/operador_microcomputador/office_e_internet/excel/aula09/Compras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\operador_microcomputador\office_e_internet\excel\aula09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2589A2F-C450-44CA-B612-F2E18462C667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601928FB-BC17-4917-B81D-E184C106B05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7AC7F0D6-0398-4B29-BCC6-295A0F32D0BE}"/>
   </bookViews>
@@ -89,7 +89,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +125,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -136,6 +149,902 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compras!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Valor </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>compras!$D$2:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ana</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maria</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sueli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compras!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E45A-4755-87AB-7C997090F830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-35"/>
+        <c:axId val="543597184"/>
+        <c:axId val="543595024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="543597184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543595024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543595024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543597184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="211">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>70184</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E4CEB8-2E11-ABCA-6889-59D2D85D975C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922B859A-4EC7-435B-B911-33C6ECEE75F0}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -523,14 +1432,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB81C762-4622-4C49-9A1E-F0F0FF318233}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -544,13 +1455,13 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -563,16 +1474,16 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>3250</v>
-      </c>
-      <c r="E2" t="str">
+      <c r="D2" t="str">
         <f>VLOOKUP(A2,clientes!$A$2:$C$6,2)</f>
         <v>Ana</v>
       </c>
-      <c r="F2" t="str">
+      <c r="E2" t="str">
         <f>VLOOKUP(A2,clientes!$A$2:$C$6,3)</f>
         <v>19 99999-9999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3250</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,16 +1496,16 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>14000</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="D3" t="str">
         <f>VLOOKUP(A3,clientes!$A$2:$C$6,2)</f>
         <v>Maria</v>
       </c>
-      <c r="F3" t="str">
+      <c r="E3" t="str">
         <f>VLOOKUP(A3,clientes!$A$2:$C$6,3)</f>
         <v>19 88888-8888</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,16 +1518,16 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
-        <v>14000</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="D4" t="str">
         <f>VLOOKUP(A4,clientes!$A$2:$C$6,2)</f>
         <v>Maria</v>
       </c>
-      <c r="F4" t="str">
+      <c r="E4" t="str">
         <f>VLOOKUP(A4,clientes!$A$2:$C$6,3)</f>
         <v>19 88888-8888</v>
+      </c>
+      <c r="F4" s="2">
+        <v>14000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -629,16 +1540,16 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>3250</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="D5" t="str">
         <f>VLOOKUP(A5,clientes!$A$2:$C$6,2)</f>
         <v>Sueli</v>
       </c>
-      <c r="F5" t="str">
+      <c r="E5" t="str">
         <f>VLOOKUP(A5,clientes!$A$2:$C$6,3)</f>
         <v>19 66666-6666</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3250</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -646,6 +1557,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
